--- a/NUnitBigCookieKit/Resources/testEmpty.xlsx
+++ b/NUnitBigCookieKit/Resources/testEmpty.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5056BBBC-BC99-407D-90EF-F0342EA8B2E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5043157D-3160-4622-BCA0-F9053643B118}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
     <t>test1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -367,7 +367,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -397,6 +397,14 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
